--- a/case3_Borate/Excel_Files/Illovo_waste_water/_HCL_PCR642Ca_illovo.xlsx
+++ b/case3_Borate/Excel_Files/Illovo_waste_water/_HCL_PCR642Ca_illovo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\Excel_Files\Illovo_waste_water\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBB708F-2316-41DB-98AE-4BE20DA3A478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D30DDFD-61DF-4914-9167-53C2347640AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4392" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCR CL" sheetId="1" r:id="rId1"/>
@@ -210,9 +210,6 @@
     <t>blue</t>
   </si>
   <si>
-    <t>Borate</t>
-  </si>
-  <si>
     <t>time duration between fractions in min</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>mg/l</t>
+  </si>
+  <si>
+    <t>HCl</t>
   </si>
 </sst>
 </file>
@@ -2094,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="68" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2130,7 +2130,7 @@
         <v>30</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>33</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>47</v>
@@ -2307,13 +2307,13 @@
         <v>5.4000000000000008E-6</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4" s="13">
         <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2342,14 +2342,14 @@
         <v>1.6321000000000003E-4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="1">
         <f>J4/60</f>
         <v>0.6</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/case3_Borate/Excel_Files/Illovo_waste_water/_HCL_PCR642Ca_illovo.xlsx
+++ b/case3_Borate/Excel_Files/Illovo_waste_water/_HCL_PCR642Ca_illovo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\Excel_Files\Illovo_waste_water\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1979230255d33e2/Desktop/MEng/MEng_Code/case3_Borate/Excel_Files/Illovo_waste_water/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D30DDFD-61DF-4914-9167-53C2347640AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{6D30DDFD-61DF-4914-9167-53C2347640AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72EA4947-F9E8-4F3D-AE45-1F87EE89DF3E}"/>
   <bookViews>
-    <workbookView xWindow="4392" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1416" yWindow="996" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCR CL" sheetId="1" r:id="rId1"/>
@@ -1171,6 +1171,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1178,7 +1179,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2094,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2181,7 +2181,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2213,24 +2213,24 @@
         <v>30</v>
       </c>
       <c r="J2" s="8">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K2" s="1">
         <f>I2/J2</f>
-        <v>0.2</v>
-      </c>
-      <c r="L2" s="10">
-        <f>12.222/1000</f>
-        <v>1.2222E-2</v>
+        <v>0.6</v>
+      </c>
+      <c r="L2">
+        <f>L3*0.8</f>
+        <v>9.7776000000000009E-3</v>
       </c>
       <c r="M2" s="9">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="N2" s="11">
         <v>2</v>
       </c>
       <c r="O2" s="11">
-        <v>0.4</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="P2" s="1">
         <v>60</v>
@@ -2251,7 +2251,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2276,7 +2276,10 @@
         <f>F3*(1/1000)</f>
         <v>1.6615E-4</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="10">
+        <f>12.222/1000</f>
+        <v>1.2222E-2</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>

--- a/case3_Borate/Excel_Files/Illovo_waste_water/_HCL_PCR642Ca_illovo.xlsx
+++ b/case3_Borate/Excel_Files/Illovo_waste_water/_HCL_PCR642Ca_illovo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1979230255d33e2/Desktop/MEng/MEng_Code/case3_Borate/Excel_Files/Illovo_waste_water/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Desktop\MEng_Code\case3_Borate\Excel_Files\Illovo_waste_water\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{6D30DDFD-61DF-4914-9167-53C2347640AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72EA4947-F9E8-4F3D-AE45-1F87EE89DF3E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C888F7-59EA-47E6-8C7C-C6C9830E4A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="996" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCR CL" sheetId="1" r:id="rId1"/>
@@ -2095,7 +2095,7 @@
   <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2108,8 +2108,8 @@
     <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
